--- a/MIPROYECTO/Excel/productos.xlsx
+++ b/MIPROYECTO/Excel/productos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -56,28 +56,52 @@
     <t>100000.0</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t>Tela Azul</t>
   </si>
   <si>
-    <t>5000.0</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8000.0</t>
+  </si>
+  <si>
+    <t>64000.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Tela Verde</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>15000.0</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8000.0</t>
-  </si>
-  <si>
-    <t>64000.0</t>
+    <t>165000.0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>TELA ROJA</t>
+  </si>
+  <si>
+    <t>Tela Naranja</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>6000.0</t>
   </si>
 </sst>
 </file>
@@ -122,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -187,30 +211,81 @@
         <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>21</v>
+      <c r="C8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
